--- a/soil_main_horizons.xlsx
+++ b/soil_main_horizons.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viudenko\Documents\почвы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akiva\Documents\PYTHON\soil\soil-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993E5DDA-689F-4F02-928D-0EA7239E675F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B33E113-DE41-487A-84F0-6E1FAB1BA0DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
     <sheet name="source" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
   <si>
     <t>Индекс</t>
   </si>
@@ -143,9 +142,6 @@
   </si>
   <si>
     <t>Хрупкие, ячеистые корочки мощностью не более 5 см, образующие поверхностную часть почвенного профиля.</t>
-  </si>
-  <si>
-    <t>HORIZON_ID</t>
   </si>
   <si>
     <t>Index</t>
@@ -160,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,12 +300,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -319,6 +309,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,256 +629,204 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFBD91C-AA3D-4BAD-955A-D994D0EF4FE8}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="120.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="124.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="91.77734375" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="120.33203125" style="6"/>
+    <col min="1" max="1" width="5.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="124.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.77734375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="120.33203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="C15" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="C17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -892,7 +836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207ED5D2-82F9-4B9A-8B99-D761ACF03363}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -914,10 +858,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -952,10 +896,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -974,10 +918,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
